--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="280">
   <si>
     <t>土地坐落</t>
   </si>
@@ -585,6 +585,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -625,6 +634,9 @@
   </si>
   <si>
     <t>33/590</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -3154,13 +3166,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
@@ -3179,13 +3191,22 @@
       <c r="G1" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3202,13 +3223,22 @@
       <c r="G2" s="2">
         <v>783640</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3225,13 +3255,22 @@
       <c r="G3" s="2">
         <v>6200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3248,13 +3287,22 @@
       <c r="G4" s="2">
         <v>8030</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3271,19 +3319,28 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -3294,13 +3351,22 @@
       <c r="G6" s="2">
         <v>28390</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3317,19 +3383,28 @@
       <c r="G7" s="2">
         <v>38740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3338,15 +3413,24 @@
         <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>203</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3363,13 +3447,22 @@
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3384,15 +3477,24 @@
         <v>173</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -3408,6 +3510,15 @@
       </c>
       <c r="G11" s="2">
         <v>259920</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -3425,25 +3536,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>145</v>
@@ -3454,7 +3565,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3479,28 +3590,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3508,22 +3619,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3533,22 +3644,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3558,16 +3669,16 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3579,16 +3690,16 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3610,22 +3721,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3636,19 +3747,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3659,19 +3770,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3682,19 +3793,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3705,19 +3816,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3728,19 +3839,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3751,19 +3862,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3774,19 +3885,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3797,19 +3908,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3820,19 +3931,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3843,19 +3954,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3866,19 +3977,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="282">
   <si>
     <t>土地坐落</t>
   </si>
@@ -585,6 +585,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -600,40 +603,43 @@
     <t>台塑石化股份有限公司</t>
   </si>
   <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>永豐餘造紙股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>中國信託金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>台灣苯乙烯工業股份有限 公司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
-    <t>新光合成纖維股份有限公 司</t>
-  </si>
-  <si>
-    <t>.2,839</t>
+    <t>新光合成纖維股份有限公司</t>
+  </si>
+  <si>
+    <t>.2839</t>
   </si>
   <si>
     <t>56^130</t>
   </si>
   <si>
-    <t>' 561,300</t>
+    <t>561300</t>
   </si>
   <si>
     <t>33/590</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -3166,13 +3172,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
@@ -3200,13 +3206,16 @@
       <c r="J1" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3224,21 +3233,24 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2">
+        <v>207</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3256,21 +3268,24 @@
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2">
+        <v>207</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3288,21 +3303,24 @@
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2">
+        <v>207</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3320,27 +3338,30 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2">
+        <v>207</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -3352,21 +3373,24 @@
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2">
+        <v>207</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3384,27 +3408,30 @@
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2">
+        <v>207</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3413,24 +3440,27 @@
         <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2">
+        <v>207</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3448,21 +3478,24 @@
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2">
+        <v>207</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3477,24 +3510,27 @@
         <v>173</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2">
+        <v>207</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -3512,12 +3548,15 @@
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2">
+        <v>207</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2">
         <v>1713</v>
       </c>
     </row>
@@ -3536,25 +3575,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>145</v>
@@ -3565,7 +3604,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3590,28 +3629,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3619,22 +3658,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3644,22 +3683,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3669,16 +3708,16 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3690,16 +3729,16 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3721,22 +3760,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3747,19 +3786,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3770,19 +3809,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3793,19 +3832,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3816,19 +3855,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3839,19 +3878,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3862,19 +3901,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3885,19 +3924,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3908,19 +3947,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3931,19 +3970,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3954,19 +3993,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3977,19 +4016,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="287">
   <si>
     <t>土地坐落</t>
   </si>
@@ -588,6 +588,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -597,6 +600,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -627,22 +636,28 @@
     <t>新光合成纖維股份有限公司</t>
   </si>
   <si>
-    <t>.2839</t>
-  </si>
-  <si>
-    <t>56^130</t>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>56130</t>
   </si>
   <si>
     <t>561300</t>
   </si>
   <si>
-    <t>33/590</t>
+    <t>33590</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpcd8e1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -3172,13 +3187,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
@@ -3209,13 +3224,22 @@
       <c r="K1" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3233,24 +3257,33 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2">
+        <v>211</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3268,24 +3301,33 @@
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2">
+        <v>211</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3303,24 +3345,33 @@
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2">
+        <v>211</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3338,30 +3389,39 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2">
+        <v>211</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -3373,24 +3433,33 @@
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2">
+        <v>211</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3408,30 +3477,39 @@
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2">
+        <v>211</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3440,27 +3518,36 @@
         <v>173</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2">
+        <v>211</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3478,24 +3565,33 @@
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2">
+        <v>211</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3510,27 +3606,36 @@
         <v>173</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2">
+        <v>211</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -3548,16 +3653,25 @@
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2">
+        <v>211</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2">
         <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" s="2">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3575,25 +3689,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>145</v>
@@ -3604,7 +3718,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3629,28 +3743,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3658,22 +3772,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3683,22 +3797,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3708,16 +3822,16 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3729,16 +3843,16 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3760,22 +3874,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3786,19 +3900,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3809,19 +3923,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3832,19 +3946,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3855,19 +3969,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3878,19 +3992,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3901,19 +4015,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3924,19 +4038,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3947,19 +4061,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3970,19 +4084,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3993,19 +4107,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4016,19 +4130,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,15 +19,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="287">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="275">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00460000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00460001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉忠孝段07960000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段01170000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05680000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05690000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05720000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05730000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段01110000地號r</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉湄洲段00330000地號.</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉育善段08650000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06920000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930006.地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930010地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興疫06930012im</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段(56930016地號.</t>
+  </si>
+  <si>
+    <t>彰化縣埤頭鄉芙朝段04320000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02240000地號.</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02250000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02280000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州郷進樂段02420000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02510000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02520000.地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02530000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄕進樂段02640000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>254分之25</t>
+  </si>
+  <si>
+    <t>10000分之166</t>
+  </si>
+  <si>
+    <t>64分之17</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>2023分之163</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>鄭汝芬</t>
+  </si>
+  <si>
+    <t>謝新隆</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>82年04月29日</t>
+  </si>
+  <si>
+    <t>81年07月Q7曰</t>
+  </si>
+  <si>
+    <t>81年07月07日</t>
+  </si>
+  <si>
+    <t>82年07月06日</t>
+  </si>
+  <si>
+    <t>74年10月24日</t>
+  </si>
+  <si>
+    <t>98年10月30日</t>
+  </si>
+  <si>
+    <t>98年10月30日.</t>
+  </si>
+  <si>
+    <t>87年02月20日</t>
+  </si>
+  <si>
+    <t>80年12月10曰</t>
+  </si>
+  <si>
+    <t>81年12月12日</t>
+  </si>
+  <si>
+    <t>91年08月07日</t>
+  </si>
+  <si>
+    <t>98年05月04日</t>
+  </si>
+  <si>
+    <t>98年05月04.日</t>
+  </si>
+  <si>
+    <t>99年08月12日</t>
+  </si>
+  <si>
+    <t>100年08月03日</t>
+  </si>
+  <si>
+    <t>100年08月03曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>frrl=t=r貝賣</t>
+  </si>
+  <si>
+    <t>地籍圖修正測量</t>
+  </si>
+  <si>
+    <t>買竇</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>承</t>
+  </si>
+  <si>
+    <t>1955340(超過五年）</t>
+  </si>
+  <si>
+    <t>2077536(超過五年）</t>
+  </si>
+  <si>
+    <t>57992(超過五年）</t>
+  </si>
+  <si>
+    <t>4243701(超過五年）</t>
+  </si>
+  <si>
+    <t>1%592800(超過五年）</t>
+  </si>
+  <si>
+    <t>6070222(超過五年）</t>
+  </si>
+  <si>
+    <t>2295520(超過五年）</t>
+  </si>
+  <si>
+    <t>1886400(超過五年）</t>
+  </si>
+  <si>
+    <t>1800219(超過五年）</t>
+  </si>
+  <si>
+    <t>239420(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpcd8e1</t>
+  </si>
+  <si>
+    <t>建物.標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
-    <t>權利範園(持分）</t>
+    <t>權利範圍(持分）</t>
   </si>
   <si>
     <t>所有權人</t>
@@ -42,316 +309,70 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段0046-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0046-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉瓦厝段0282-0000 地號</t>
-  </si>
-  <si>
-    <t>、彰化縣溪州鄉瓦厝段0282-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉忠孝段0796-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 0117-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0568-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0569-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0572-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0573-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段0111 -0000 地號 r</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉湄洲段0033-0000 地號 .</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉育善段0865-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0692-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0006 .地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0010 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興疫0693-0012 •im</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段(5693-0016 地號 .</t>
-  </si>
-  <si>
-    <t>彰化縣埤頭鄉芙朝段0432-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0224-0000 地號 .</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0225-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0228-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州郷進樂段0242-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0251 -0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0252-0000. 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0253-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄕進樂段0264-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>254分之25</t>
-  </si>
-  <si>
-    <t>10000分之 166</t>
-  </si>
-  <si>
-    <t>-全部</t>
-  </si>
-  <si>
-    <t>64’分之17</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>2023分之 163</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全、部</t>
-  </si>
-  <si>
-    <t>鄭汝芬</t>
-  </si>
-  <si>
-    <t>謝新隆</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>82年04.月 29日</t>
-  </si>
-  <si>
-    <t>82年04月 29日</t>
-  </si>
-  <si>
-    <t>81年07月 Q7曰</t>
-  </si>
-  <si>
-    <t>81年07月 07日</t>
-  </si>
-  <si>
-    <t>82年07月 06日</t>
-  </si>
-  <si>
-    <t>74年10月 24日</t>
-  </si>
-  <si>
-    <t>98年10月 30日</t>
-  </si>
-  <si>
-    <t>98年10月 30日 .</t>
-  </si>
-  <si>
-    <t>98年10月. 30日</t>
-  </si>
-  <si>
-    <t>87年02月 20日</t>
-  </si>
-  <si>
-    <t>80年12月 10曰</t>
-  </si>
-  <si>
-    <t>81年12月 12日</t>
-  </si>
-  <si>
-    <t>91年08•月 07日</t>
-  </si>
-  <si>
-    <t>98年05月 04日</t>
-  </si>
-  <si>
-    <t>98年05月 04.日</t>
-  </si>
-  <si>
-    <t>99年08月 12日</t>
-  </si>
-  <si>
-    <t>100 年 08 月03日</t>
-  </si>
-  <si>
-    <t>100 年 08 月03曰</t>
-  </si>
-  <si>
-    <t>100 年 08 • 月03日</t>
-  </si>
-  <si>
-    <t>' 100 年 08 月03曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>fr-rl-=t=r 貝賣</t>
-  </si>
-  <si>
-    <t>地籍圖修 正測量</t>
-  </si>
-  <si>
-    <t>買竇</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>_承</t>
-  </si>
-  <si>
-    <t>1，955，340(超 過五年）</t>
-  </si>
-  <si>
-    <t>2,077,536(超 過五年）</t>
-  </si>
-  <si>
-    <t>57,992(超過 五年）</t>
-  </si>
-  <si>
-    <t>4,243,701(超 過五年）、</t>
-  </si>
-  <si>
-    <t>1% 592,800 (超 過五年）</t>
-  </si>
-  <si>
-    <t>6,070,222(超 過五年）</t>
-  </si>
-  <si>
-    <t>2,295,520(超 過五年）</t>
-  </si>
-  <si>
-    <t>1,886,400(超 過五年）</t>
-  </si>
-  <si>
-    <t>1，800，2'19(超 過五年）</t>
-  </si>
-  <si>
-    <t>239’420(超過 五年）</t>
-  </si>
-  <si>
-    <t>建物.標示</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>取得價’額</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00113-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00114,000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 18478-000 建號</t>
-  </si>
-  <si>
-    <t>,彰化縣員林鎮和平段00023-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037-000</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041 -000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075-000 建號</t>
+    <t>彰化縣溪州鄉進樂段00113000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉中央路</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉復興段00022-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250-000 建號 （</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249-000 建號</t>
+    <t>彰化縣溪州鄉復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號（</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
   </si>
   <si>
     <t>彰化縣員林鎮中山路</t>
   </si>
   <si>
-    <t>彰化縣翠州郷進樂段00063-000 建號</t>
+    <t>彰化縣翠州郷進樂段00063000建號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉中山路</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進興路 ；</t>
-  </si>
-  <si>
     <t>彰化縣溪州鄉進興路</t>
   </si>
   <si>
     <t>145:87</t>
   </si>
   <si>
-    <t>100000 分 之 25000</t>
-  </si>
-  <si>
-    <t>-3分之1</t>
+    <t>100000分之25000</t>
   </si>
   <si>
     <t>.謝新隆</t>
@@ -360,85 +381,76 @@
     <t>謝新隆.</t>
   </si>
   <si>
-    <t>92年09月 19日</t>
-  </si>
-  <si>
-    <t>73年12月 31曰</t>
-  </si>
-  <si>
-    <t>87年Q2月 20日</t>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>73年12月31曰</t>
+  </si>
+  <si>
+    <t>87年Q2月20日</t>
   </si>
   <si>
     <t>87年02月</t>
   </si>
   <si>
-    <t>91年08月 07日</t>
-  </si>
-  <si>
-    <t>98年07月 30日’</t>
-  </si>
-  <si>
-    <t>98年06月 26 0.</t>
-  </si>
-  <si>
-    <t>99年02月 25日</t>
-  </si>
-  <si>
-    <t>100 年 08 月01日</t>
-  </si>
-  <si>
-    <t>100 年 08 -月03日</t>
-  </si>
-  <si>
-    <t>100 年 08 月'03日</t>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月260.</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
+  </si>
+  <si>
+    <t>100年08月01日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>497，900(超過 五年）</t>
-  </si>
-  <si>
-    <t>534,700(超過 五年）</t>
-  </si>
-  <si>
-    <t>609,%0(超過 五年）</t>
-  </si>
-  <si>
-    <t>86,975 (超過 五年）</t>
-  </si>
-  <si>
-    <t>1,129，600(超 過五年）,</t>
-  </si>
-  <si>
-    <t>471,400(超過 五年)'</t>
-  </si>
-  <si>
-    <t>589，900(超過</t>
-  </si>
-  <si>
-    <t>471,400(超過 五年）</t>
-  </si>
-  <si>
-    <t>5的,900(超過 五年）</t>
-  </si>
-  <si>
-    <t>471,400(超過 五年）.</t>
-  </si>
-  <si>
-    <t>589，900(超過’ 五年）</t>
-  </si>
-  <si>
-    <t>381,296(超過 五年）</t>
-  </si>
-  <si>
-    <t>36,266 (趟過 五年）</t>
-  </si>
-  <si>
-    <t>172,064(超過 五年）</t>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>497900(超過五年）</t>
+  </si>
+  <si>
+    <t>534700(超過五年）</t>
+  </si>
+  <si>
+    <t>609%0(超過五年）</t>
+  </si>
+  <si>
+    <t>86975(超過五年）</t>
+  </si>
+  <si>
+    <t>1129600(超過五年）</t>
+  </si>
+  <si>
+    <t>471400(超過五年)</t>
+  </si>
+  <si>
+    <t>589900(超過</t>
+  </si>
+  <si>
+    <t>471400(超過五年）</t>
+  </si>
+  <si>
+    <t>5的900(超過五年）</t>
+  </si>
+  <si>
+    <t>471400(超過五年）.</t>
+  </si>
+  <si>
+    <t>589900(超過五年）</t>
+  </si>
+  <si>
+    <t>381296(超過五年）</t>
+  </si>
+  <si>
+    <t>36266(趟過五年）</t>
+  </si>
+  <si>
+    <t>172064(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -468,7 +480,7 @@
     <t>第一商業銀行西螺分行</t>
   </si>
   <si>
-    <t>溪州郵局（第3 7支局）</t>
+    <t>溪州郵局（第37支局）</t>
   </si>
   <si>
     <t>彰化商業銀行北斗分行</t>
@@ -477,19 +489,19 @@
     <t>台中商業銀行員林分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行員林分 行</t>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行員林分行</t>
   </si>
   <si>
     <t>聯邦商業銀行員#分行</t>
@@ -522,7 +534,7 @@
     <t>其惮存款</t>
   </si>
   <si>
-    <t>活期存款 ‘</t>
+    <t>活期存款‘</t>
   </si>
   <si>
     <t>活期篩蓄存款</t>
@@ -552,25 +564,16 @@
     <t>美金</t>
   </si>
   <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t>4，487，655</t>
-  </si>
-  <si>
-    <t>7,242，261</t>
-  </si>
-  <si>
-    <t>34，529，973</t>
-  </si>
-  <si>
-    <t>1,, 883,340</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>4487655</t>
+  </si>
+  <si>
+    <t>7242261</t>
+  </si>
+  <si>
+    <t>34529973</t>
+  </si>
+  <si>
+    <t>1883340</t>
   </si>
   <si>
     <t>quantity</t>
@@ -585,27 +588,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -651,15 +633,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpcd8e1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -690,64 +663,58 @@
     <t>縣丫货</t>
   </si>
   <si>
-    <t>S W (罕發）勃迪</t>
-  </si>
-  <si>
-    <t>n 褂</t>
-  </si>
-  <si>
-    <t>OOO'OSVZ</t>
+    <t>SW(罕發）勃迪</t>
+  </si>
+  <si>
+    <t>n褂</t>
+  </si>
+  <si>
+    <t>OOOOSVZ</t>
   </si>
   <si>
     <t>產</t>
   </si>
   <si>
-    <t>日U 巨so由时</t>
-  </si>
-  <si>
-    <t>LBJ 钿 (帀召•）*•*</t>
-  </si>
-  <si>
-    <t>Y 势蕾</t>
-  </si>
-  <si>
-    <t>-mm</t>
-  </si>
-  <si>
-    <t>種 類</t>
-  </si>
-  <si>
-    <t>000*0004 Si</t>
-  </si>
-  <si>
-    <t>盤 m</t>
-  </si>
-  <si>
-    <t>操方辱| 势</t>
-  </si>
-  <si>
-    <t>項 /</t>
-  </si>
-  <si>
-    <t>m zmoz 叵矽刨萆扮视辑始劁ai■颖</t>
-  </si>
-  <si>
-    <t>7¥ 取茗 Y 揆褂</t>
-  </si>
-  <si>
-    <t>垣 夺辱1 势</t>
+    <t>日U巨so由时</t>
+  </si>
+  <si>
+    <t>LBJ钿(帀召）**</t>
+  </si>
+  <si>
+    <t>Y势蕾</t>
   </si>
   <si>
     <t>mm</t>
   </si>
   <si>
+    <t>000*0004Si</t>
+  </si>
+  <si>
+    <t>盤m</t>
+  </si>
+  <si>
+    <t>操方辱|势</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>mzmoz叵矽刨萆扮视辑始劁ai■颖</t>
+  </si>
+  <si>
+    <t>7¥取茗Y揆褂</t>
+  </si>
+  <si>
+    <t>垣夺辱1势</t>
+  </si>
+  <si>
     <t>件</t>
   </si>
   <si>
     <t>耷獅</t>
   </si>
   <si>
-    <t>Y 鄯勘</t>
+    <t>Y鄯勘</t>
   </si>
   <si>
     <t>所</t>
@@ -756,10 +723,10 @@
     <t>■</t>
   </si>
   <si>
-    <t>m #</t>
-  </si>
-  <si>
-    <t>有 人</t>
+    <t>m#</t>
+  </si>
+  <si>
+    <t>有人</t>
   </si>
   <si>
     <t>價.</t>
@@ -774,7 +741,7 @@
     <t>投資事業地址</t>
   </si>
   <si>
-    <t>投-資金額</t>
+    <t>投資金額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
@@ -810,16 +777,16 @@
     <t>威寶電信股份肴限公司</t>
   </si>
   <si>
-    <t>全家福通訊科孩股份有限公 司</t>
+    <t>全家福通訊科孩股份有限公司</t>
   </si>
   <si>
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
-    <t>臺北市八德路2段232號4 樓</t>
-  </si>
-  <si>
-    <t>臺北市瑞光路358巷36號5 樓</t>
+    <t>臺北市八德路2段232號4樓</t>
+  </si>
+  <si>
+    <t>臺北市瑞光路358巷36號5樓</t>
   </si>
   <si>
     <t>彰化縣西德里舜耕路*47號</t>
@@ -828,49 +795,46 @@
     <t>彰化縣復興路12號</t>
   </si>
   <si>
-    <t>高雄市崙北巷1-1號</t>
+    <t>高雄市崙北巷11號</t>
   </si>
   <si>
     <t>彰化縣慶平路83號</t>
   </si>
   <si>
-    <t>臺北市八德路2段232號4 樓'</t>
-  </si>
-  <si>
     <t>臺北市經貿二路66號12樓</t>
   </si>
   <si>
-    <t>彰化縣中山路3段270巷11 號1樓</t>
-  </si>
-  <si>
-    <t>78年04月 20日'</t>
-  </si>
-  <si>
-    <t>94年01月 13日</t>
-  </si>
-  <si>
-    <t>94年02月 02日</t>
-  </si>
-  <si>
-    <t>72年04月 18曰</t>
-  </si>
-  <si>
-    <t>86年02月 19日</t>
-  </si>
-  <si>
-    <t>91年10月 23日</t>
-  </si>
-  <si>
-    <t>74年04月 20日</t>
-  </si>
-  <si>
-    <t>94年01月 13曰'</t>
-  </si>
-  <si>
-    <t>97年12月 31曰</t>
-  </si>
-  <si>
-    <t>98年05月 19日</t>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13日</t>
+  </si>
+  <si>
+    <t>94年02月02日</t>
+  </si>
+  <si>
+    <t>72年04月18曰</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>97年12月31曰</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
   </si>
   <si>
     <t>合資</t>
@@ -879,7 +843,7 @@
     <t>合夥</t>
   </si>
   <si>
-    <t>合《</t>
+    <t>合</t>
   </si>
 </sst>
 </file>
@@ -1238,13 +1202,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,707 +1230,1295 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2227.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2">
         <v>46784010</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2">
         <v>2836470</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
         <v>1859130</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1073.71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2">
         <v>22547910</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>267.71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>127.95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
         <v>870128</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>108.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2">
         <v>737120</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>111.39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2">
         <v>757656</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>208.83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2">
         <v>2066362</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>3014.97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2">
         <v>1206000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
         <v>154897</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
         <v>625894</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2">
         <v>287490</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="2">
         <v>990755</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2">
         <v>88908</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2">
         <v>608820</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
         <v>564058</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>29.68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2">
         <v>456538</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1984,25 +2536,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2010,25 +2562,25 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>215.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2036,25 +2588,25 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>229.74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2062,25 +2614,25 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>146.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2088,25 +2640,25 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>41.62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2114,25 +2666,25 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2140,25 +2692,25 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>60.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2166,25 +2718,25 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2">
         <v>76.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2192,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <v>60.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2218,25 +2770,25 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
         <v>76.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2244,25 +2796,25 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
         <v>60.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2270,25 +2822,25 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <v>76.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2296,25 +2848,25 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2">
         <v>474.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2322,25 +2874,25 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2">
         <v>307.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2348,25 +2900,25 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2">
         <v>478.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2374,22 +2926,22 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2">
         <v>399.9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H16" s="2">
         <v>192133</v>
@@ -2400,22 +2952,22 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2">
         <v>256.14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H17" s="2">
         <v>140565</v>
@@ -2426,22 +2978,22 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2">
         <v>181.3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2">
         <v>99900</v>
@@ -2452,22 +3004,22 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2">
         <v>187600</v>
@@ -2478,22 +3030,22 @@
         <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2">
         <v>105.6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2">
         <v>131200</v>
@@ -2504,22 +3056,22 @@
         <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2">
         <v>110.8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
         <v>132000</v>
@@ -2530,22 +3082,22 @@
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>89.7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
         <v>106800</v>
@@ -2566,22 +3118,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2589,16 +3141,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2610,16 +3162,16 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2631,16 +3183,16 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2652,20 +3204,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2673,16 +3225,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2694,16 +3246,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2715,16 +3267,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2736,16 +3288,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2757,16 +3309,16 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2778,20 +3330,20 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2799,20 +3351,20 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2820,16 +3372,16 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2841,16 +3393,16 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2862,16 +3414,16 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2">
         <v>16.8</v>
@@ -2885,16 +3437,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
         <v>576.89</v>
@@ -2908,16 +3460,16 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2929,16 +3481,16 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2950,16 +3502,16 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2971,16 +3523,16 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2992,16 +3544,16 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -3013,16 +3565,16 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -3034,16 +3586,16 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -3055,20 +3607,18 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
         <v>14228</v>
       </c>
@@ -3078,16 +3628,16 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -3099,20 +3649,20 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3120,16 +3670,16 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -3141,16 +3691,16 @@
         <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -3162,16 +3712,16 @@
         <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2">
         <v>1401.58</v>
@@ -3195,43 +3745,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3239,10 +3789,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>78364</v>
@@ -3251,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
         <v>123</v>
@@ -3283,10 +3833,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>620</v>
@@ -3295,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
         <v>124</v>
@@ -3327,10 +3877,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>803</v>
@@ -3339,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
         <v>125</v>
@@ -3371,10 +3921,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3383,28 +3933,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2">
         <v>126</v>
@@ -3415,40 +3965,40 @@
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>127</v>
@@ -3459,10 +4009,10 @@
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>3874</v>
@@ -3471,28 +4021,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2">
         <v>128</v>
@@ -3503,40 +4053,40 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2">
         <v>129</v>
@@ -3547,10 +4097,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>217264</v>
@@ -3559,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2">
         <v>130</v>
@@ -3591,10 +4141,10 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
         <v>3359</v>
@@ -3603,28 +4153,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2">
         <v>131</v>
@@ -3635,10 +4185,10 @@
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
         <v>25992</v>
@@ -3647,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2">
         <v>1713</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2">
         <v>132</v>
@@ -3689,28 +4239,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3718,10 +4268,10 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -3732,7 +4282,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
@@ -3743,28 +4293,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3772,22 +4322,22 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3797,22 +4347,22 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3822,16 +4372,16 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3843,16 +4393,16 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3874,22 +4424,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3897,22 +4447,22 @@
         <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3920,22 +4470,22 @@
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3943,22 +4493,22 @@
         <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3966,22 +4516,22 @@
         <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3989,22 +4539,22 @@
         <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4012,22 +4562,22 @@
         <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4035,22 +4585,22 @@
         <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4058,22 +4608,22 @@
         <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4081,22 +4631,22 @@
         <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4104,22 +4654,22 @@
         <v>208</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4127,22 +4677,22 @@
         <v>209</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="247">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00460000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
@@ -246,9 +249,6 @@
     <t>承</t>
   </si>
   <si>
-    <t>1955340(超過五年）</t>
-  </si>
-  <si>
     <t>2077536(超過五年）</t>
   </si>
   <si>
@@ -288,30 +288,15 @@
     <t>tmpcd8e1</t>
   </si>
   <si>
-    <t>建物.標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>497900(超過五年）</t>
+  </si>
+  <si>
     <t>彰化縣溪州鄉進樂段00114000建號</t>
   </si>
   <si>
@@ -381,9 +366,6 @@
     <t>謝新隆.</t>
   </si>
   <si>
-    <t>92年09月19日</t>
-  </si>
-  <si>
     <t>73年12月31曰</t>
   </si>
   <si>
@@ -411,9 +393,6 @@
     <t>第一次登記</t>
   </si>
   <si>
-    <t>497900(超過五年）</t>
-  </si>
-  <si>
     <t>534700(超過五年）</t>
   </si>
   <si>
@@ -453,240 +432,198 @@
     <t>172064(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
+    <t>安寧商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行西螺分行</t>
+  </si>
+  <si>
+    <t>溪州郵局（第37支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行員#分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業娘行西螺分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行花壇分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>其惮存款</t>
+  </si>
+  <si>
+    <t>活期存款‘</t>
+  </si>
+  <si>
+    <t>活期篩蓄存款</t>
+  </si>
+  <si>
+    <t>洼期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款..</t>
+  </si>
+  <si>
+    <t>活期儲蓄織</t>
+  </si>
+  <si>
+    <t>活期儲霣存款</t>
+  </si>
+  <si>
+    <t>新臺锖</t>
+  </si>
+  <si>
+    <t>美考</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>4487655</t>
+  </si>
+  <si>
+    <t>7242261</t>
+  </si>
+  <si>
+    <t>34529973</t>
+  </si>
+  <si>
+    <t>1883340</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>台塑石化股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>永豐餘造紙股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>聯華實業股份有限公司</t>
+  </si>
+  <si>
+    <t>新光合成纖維股份有限公司</t>
+  </si>
+  <si>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>56130</t>
+  </si>
+  <si>
+    <t>561300</t>
+  </si>
+  <si>
+    <t>33590</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>山隆通運股份有限公司</t>
+  </si>
+  <si>
+    <t>財</t>
+  </si>
+  <si>
+    <t>縣丫货</t>
+  </si>
+  <si>
+    <t>SW(罕發）勃迪</t>
+  </si>
+  <si>
+    <t>n褂</t>
+  </si>
+  <si>
+    <t>OOOOSVZ</t>
+  </si>
+  <si>
+    <t>產</t>
+  </si>
+  <si>
+    <t>日U巨so由时</t>
+  </si>
+  <si>
+    <t>LBJ钿(帀召）**</t>
+  </si>
+  <si>
+    <t>Y势蕾</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
   <si>
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>安寧商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行西螺分行</t>
-  </si>
-  <si>
-    <t>溪州郵局（第37支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行員#分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業娘行西螺分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行花壇分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>其惮存款</t>
-  </si>
-  <si>
-    <t>活期存款‘</t>
-  </si>
-  <si>
-    <t>活期篩蓄存款</t>
-  </si>
-  <si>
-    <t>洼期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款..</t>
-  </si>
-  <si>
-    <t>活期儲蓄織</t>
-  </si>
-  <si>
-    <t>活期儲霣存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>新臺锖</t>
-  </si>
-  <si>
-    <t>美考</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>4487655</t>
-  </si>
-  <si>
-    <t>7242261</t>
-  </si>
-  <si>
-    <t>34529973</t>
-  </si>
-  <si>
-    <t>1883340</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣水泥股份有限公司</t>
-  </si>
-  <si>
-    <t>台塑石化股份有限公司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公司</t>
-  </si>
-  <si>
-    <t>永豐餘造紙股份有限公司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>中國信託金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣苯乙烯工業股份有限公司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>聯華實業股份有限公司</t>
-  </si>
-  <si>
-    <t>新光合成纖維股份有限公司</t>
-  </si>
-  <si>
-    <t>2839</t>
-  </si>
-  <si>
-    <t>56130</t>
-  </si>
-  <si>
-    <t>561300</t>
-  </si>
-  <si>
-    <t>33590</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>山隆通運股份有限公司</t>
-  </si>
-  <si>
-    <t>財</t>
-  </si>
-  <si>
-    <t>縣丫货</t>
-  </si>
-  <si>
-    <t>SW(罕發）勃迪</t>
-  </si>
-  <si>
-    <t>n褂</t>
-  </si>
-  <si>
-    <t>OOOOSVZ</t>
-  </si>
-  <si>
-    <t>產</t>
-  </si>
-  <si>
-    <t>日U巨so由时</t>
-  </si>
-  <si>
-    <t>LBJ钿(帀召）**</t>
-  </si>
-  <si>
-    <t>Y势蕾</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
     <t>000*0004Si</t>
   </si>
   <si>
@@ -696,6 +633,15 @@
     <t>操方辱|势</t>
   </si>
   <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>m#</t>
+  </si>
+  <si>
     <t>項</t>
   </si>
   <si>
@@ -717,42 +663,21 @@
     <t>Y鄯勘</t>
   </si>
   <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>m#</t>
-  </si>
-  <si>
-    <t>有人</t>
-  </si>
-  <si>
     <t>價.</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>彰化縣西德里舜耕路47號</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>合資</t>
+  </si>
+  <si>
     <t>聯拳電信股份有限公司</t>
   </si>
   <si>
@@ -780,9 +705,6 @@
     <t>全家福通訊科孩股份有限公司</t>
   </si>
   <si>
-    <t>彰化縣西德里舜耕路47號</t>
-  </si>
-  <si>
     <t>臺北市八德路2段232號4樓</t>
   </si>
   <si>
@@ -807,9 +729,6 @@
     <t>彰化縣中山路3段270巷11號1樓</t>
   </si>
   <si>
-    <t>78年04月20日</t>
-  </si>
-  <si>
     <t>94年01月13日</t>
   </si>
   <si>
@@ -835,9 +754,6 @@
   </si>
   <si>
     <t>98年05月19日</t>
-  </si>
-  <si>
-    <t>合資</t>
   </si>
   <si>
     <t>合夥</t>
@@ -1202,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,31 +1167,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>95.85</v>
+        <v>101.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>85</v>
@@ -1287,7 +1209,7 @@
         <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
@@ -1296,33 +1218,39 @@
         <v>88</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>101.84</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>85</v>
@@ -1334,7 +1262,7 @@
         <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2">
         <v>1713</v>
@@ -1343,33 +1271,39 @@
         <v>88</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.3267716535433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>491</v>
+        <v>28744</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>85</v>
@@ -1381,7 +1315,7 @@
         <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
@@ -1390,33 +1324,39 @@
         <v>88</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2829.13385826772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>28744</v>
+        <v>1448</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>85</v>
@@ -1428,7 +1368,7 @@
         <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
@@ -1437,33 +1377,39 @@
         <v>88</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1448</v>
+        <v>1966</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>85</v>
@@ -1475,7 +1421,7 @@
         <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
@@ -1484,33 +1430,39 @@
         <v>88</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0166</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>32.6356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1966</v>
+        <v>2227.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="H7" s="2">
+        <v>46784010</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>85</v>
@@ -1522,7 +1474,7 @@
         <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2">
         <v>1713</v>
@@ -1531,33 +1483,39 @@
         <v>88</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2227.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2227.81</v>
+        <v>135.07</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
-        <v>46784010</v>
+        <v>2836470</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>85</v>
@@ -1569,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2">
         <v>1713</v>
@@ -1578,33 +1536,39 @@
         <v>88</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>135.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>135.07</v>
+        <v>88.53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
-        <v>2836470</v>
+        <v>1859130</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>85</v>
@@ -1616,7 +1580,7 @@
         <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="2">
         <v>1713</v>
@@ -1625,33 +1589,39 @@
         <v>88</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>88.53</v>
+        <v>1073.71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2">
-        <v>1859130</v>
+        <v>22547910</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>85</v>
@@ -1663,7 +1633,7 @@
         <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
@@ -1672,33 +1642,39 @@
         <v>88</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1073.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1073.71</v>
+        <v>389.98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="2">
-        <v>22547910</v>
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>85</v>
@@ -1710,7 +1686,7 @@
         <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
@@ -1719,33 +1695,39 @@
         <v>88</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.265625</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>103.5884375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>389.98</v>
+        <v>3144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>85</v>
@@ -1757,7 +1739,7 @@
         <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
@@ -1766,33 +1748,39 @@
         <v>88</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>3144</v>
+        <v>267.71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>85</v>
@@ -1804,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
@@ -1813,33 +1801,39 @@
         <v>88</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>267.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>267.71</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>85</v>
@@ -1851,7 +1845,7 @@
         <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
@@ -1860,33 +1854,39 @@
         <v>88</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0805734058329214</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.2990608007909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>103</v>
+        <v>127.95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="H15" s="2">
+        <v>870128</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>85</v>
@@ -1898,7 +1898,7 @@
         <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2">
         <v>1713</v>
@@ -1907,33 +1907,39 @@
         <v>88</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>127.95</v>
+        <v>108.39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2">
-        <v>870128</v>
+        <v>737120</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>85</v>
@@ -1945,7 +1951,7 @@
         <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16" s="2">
         <v>1713</v>
@@ -1954,33 +1960,39 @@
         <v>88</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>36.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>108.39</v>
+        <v>111.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2">
-        <v>737120</v>
+        <v>757656</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>85</v>
@@ -1992,7 +2004,7 @@
         <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2">
         <v>1713</v>
@@ -2001,33 +2013,39 @@
         <v>88</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>111.39</v>
+        <v>208.83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2">
-        <v>757656</v>
+        <v>2066362</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>85</v>
@@ -2039,7 +2057,7 @@
         <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
@@ -2048,33 +2066,39 @@
         <v>88</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>69.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>208.83</v>
+        <v>3014.97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2">
-        <v>2066362</v>
+        <v>1206000</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>85</v>
@@ -2086,7 +2110,7 @@
         <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
@@ -2095,33 +2119,39 @@
         <v>88</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1004.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>3014.97</v>
+        <v>10.07</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2">
-        <v>1206000</v>
+        <v>154897</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>85</v>
@@ -2133,7 +2163,7 @@
         <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
@@ -2142,33 +2172,39 @@
         <v>88</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>10.07</v>
+        <v>40.69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2">
-        <v>154897</v>
+        <v>625894</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>85</v>
@@ -2180,7 +2216,7 @@
         <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
@@ -2189,33 +2225,39 @@
         <v>88</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>40.69</v>
+        <v>18.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2">
-        <v>625894</v>
+        <v>287490</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>85</v>
@@ -2227,7 +2269,7 @@
         <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
@@ -2236,33 +2278,39 @@
         <v>88</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>18.69</v>
+        <v>64.41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="2">
-        <v>287490</v>
+        <v>990755</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>85</v>
@@ -2274,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
@@ -2283,33 +2331,39 @@
         <v>88</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>64.41</v>
+        <v>5.78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2">
-        <v>990755</v>
+        <v>88908</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>85</v>
@@ -2321,7 +2375,7 @@
         <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
@@ -2330,33 +2384,39 @@
         <v>88</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>5.78</v>
+        <v>39.58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H25" s="2">
-        <v>88908</v>
+        <v>608820</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>85</v>
@@ -2368,7 +2428,7 @@
         <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
@@ -2377,33 +2437,39 @@
         <v>88</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>39.58</v>
+        <v>36.67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2">
-        <v>608820</v>
+        <v>564058</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>85</v>
@@ -2415,7 +2481,7 @@
         <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
@@ -2424,33 +2490,39 @@
         <v>88</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>36.67</v>
+        <v>29.68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" s="2">
-        <v>564058</v>
+        <v>456538</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>85</v>
@@ -2462,7 +2534,7 @@
         <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
@@ -2471,54 +2543,13 @@
         <v>88</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
         <v>41</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
         <v>29.68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="2">
-        <v>456538</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="2">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2559,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2538,568 +2569,542 @@
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>215.58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
-        <v>215.58</v>
+        <v>229.74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2">
-        <v>229.74</v>
+        <v>146.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
-        <v>146.2</v>
+        <v>41.62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>41.62</v>
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60.89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2">
-        <v>76.2</v>
+        <v>474.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2">
-        <v>474.2</v>
+        <v>307.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2">
-        <v>307.8</v>
+        <v>478.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2">
-        <v>478.1</v>
+        <v>399.9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="H15" s="2">
+        <v>192133</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2">
-        <v>399.9</v>
+        <v>256.14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2">
-        <v>192133</v>
+        <v>140565</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2">
-        <v>256.14</v>
+        <v>181.3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2">
-        <v>140565</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2">
-        <v>181.3</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2">
-        <v>99900</v>
+        <v>187600</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2">
-        <v>154</v>
+        <v>105.6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2">
-        <v>187600</v>
+        <v>131200</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2">
-        <v>105.6</v>
+        <v>110.8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2">
-        <v>131200</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2">
-        <v>110.8</v>
+        <v>89.7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="2">
-        <v>89.7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="2">
         <v>106800</v>
       </c>
     </row>
@@ -3110,7 +3115,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3118,615 +3123,592 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>49</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>404201</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>404201</v>
+        <v>494571</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>494571</v>
+        <v>3863172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>3863172</v>
+      <c r="G4" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>181</v>
+      <c r="G5" s="2">
+        <v>1027634</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1027634</v>
+        <v>19033341</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>19033341</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>208212</v>
+        <v>651014</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>651014</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>183</v>
+      <c r="G12" s="2">
+        <v>1362644</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1362644</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.8</v>
+      </c>
       <c r="G14" s="2">
-        <v>94</v>
+        <v>511.39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
+        <v>576.89</v>
       </c>
       <c r="G15" s="2">
-        <v>511.39</v>
+        <v>17560.53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2">
-        <v>576.89</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>17560.53</v>
+        <v>162685</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>162685</v>
+        <v>9548129</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>9548129</v>
+        <v>11094760</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>11094760</v>
+        <v>3004674</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>3004674</v>
+        <v>653052</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>653052</v>
+        <v>16381</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>16381</v>
+        <v>230112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>230112</v>
+        <v>14228</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>14228</v>
+        <v>16423</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>16423</v>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>184</v>
+      <c r="G26" s="2">
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>233</v>
+        <v>23239</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1401.58</v>
+      </c>
       <c r="G28" s="2">
-        <v>23239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>116</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1401.58</v>
-      </c>
-      <c r="G29" s="2">
         <v>42664.1</v>
       </c>
     </row>
@@ -3737,7 +3719,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3751,16 +3733,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3786,28 +3768,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
-        <v>78364</v>
+        <v>620</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2">
-        <v>783640</v>
+        <v>6200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>86</v>
@@ -3816,7 +3798,7 @@
         <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
@@ -3825,33 +3807,33 @@
         <v>88</v>
       </c>
       <c r="N2" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
-        <v>620</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2">
-        <v>6200</v>
+        <v>8030</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>86</v>
@@ -3860,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
@@ -3869,33 +3851,33 @@
         <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
-        <v>803</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2">
-        <v>8030</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>86</v>
@@ -3904,7 +3886,7 @@
         <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
@@ -3913,33 +3895,33 @@
         <v>88</v>
       </c>
       <c r="N4" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>28390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>86</v>
@@ -3948,7 +3930,7 @@
         <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
@@ -3957,33 +3939,33 @@
         <v>88</v>
       </c>
       <c r="N5" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3874</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2">
-        <v>28390</v>
+        <v>38740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>86</v>
@@ -3992,7 +3974,7 @@
         <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
@@ -4001,33 +3983,33 @@
         <v>88</v>
       </c>
       <c r="N6" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3874</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2">
-        <v>38740</v>
+        <v>139</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>86</v>
@@ -4036,7 +4018,7 @@
         <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
@@ -4045,33 +4027,33 @@
         <v>88</v>
       </c>
       <c r="N7" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="2">
+        <v>217264</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>201</v>
+        <v>139</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2172640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>86</v>
@@ -4080,7 +4062,7 @@
         <v>87</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
@@ -4089,33 +4071,33 @@
         <v>88</v>
       </c>
       <c r="N8" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
-        <v>217264</v>
+        <v>3359</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2172640</v>
+        <v>139</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>86</v>
@@ -4124,7 +4106,7 @@
         <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
@@ -4133,33 +4115,33 @@
         <v>88</v>
       </c>
       <c r="N9" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
-        <v>3359</v>
+        <v>25992</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>202</v>
+        <v>139</v>
+      </c>
+      <c r="G10" s="2">
+        <v>259920</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>86</v>
@@ -4168,7 +4150,7 @@
         <v>87</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
@@ -4177,50 +4159,6 @@
         <v>88</v>
       </c>
       <c r="N10" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>132</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25992</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="2">
-        <v>259920</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1713</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="2">
         <v>132</v>
       </c>
     </row>
@@ -4231,7 +4169,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4239,175 +4177,154 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="I1" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10</v>
+        <v>214</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4416,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4424,275 +4341,252 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2">
-        <v>1600000</v>
+        <v>30460</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2">
-        <v>30460</v>
+        <v>1222200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="E4" s="2">
-        <v>1222200</v>
+        <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E5" s="2">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E6" s="2">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="E7" s="2">
-        <v>1000000</v>
+        <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="E8" s="2">
-        <v>120000</v>
+        <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E9" s="2">
-        <v>134580</v>
+        <v>1000000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2">
-        <v>1000000</v>
+        <v>726600</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="E11" s="2">
-        <v>726600</v>
+        <v>200000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>209</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣溪州鄉進樂段00460000地號</t>
+  </si>
+  <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
   </si>
   <si>
@@ -249,6 +252,9 @@
     <t>承</t>
   </si>
   <si>
+    <t>1955340(超過五年）</t>
+  </si>
+  <si>
     <t>2077536(超過五年）</t>
   </si>
   <si>
@@ -291,108 +297,105 @@
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>彰化縣溪州鄉進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中央路</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號（</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中山路</t>
+  </si>
+  <si>
+    <t>彰化縣翠州郷進樂段00063000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中山路</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進興路</t>
+  </si>
+  <si>
+    <t>100000分之25000</t>
+  </si>
+  <si>
+    <t>.謝新隆</t>
+  </si>
+  <si>
+    <t>謝新隆.</t>
+  </si>
+  <si>
     <t>92年09月19日</t>
   </si>
   <si>
+    <t>73年12月31曰</t>
+  </si>
+  <si>
+    <t>87年Q2月20日</t>
+  </si>
+  <si>
+    <t>87年02月</t>
+  </si>
+  <si>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月260.</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
+  </si>
+  <si>
+    <t>100年08月01日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>497900(超過五年）</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00114000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段18478000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00023000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037000</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中央路</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00022000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250000建號（</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中山路</t>
-  </si>
-  <si>
-    <t>彰化縣翠州郷進樂段00063000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中山路</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進興路</t>
-  </si>
-  <si>
-    <t>145:87</t>
-  </si>
-  <si>
-    <t>100000分之25000</t>
-  </si>
-  <si>
-    <t>.謝新隆</t>
-  </si>
-  <si>
-    <t>謝新隆.</t>
-  </si>
-  <si>
-    <t>73年12月31曰</t>
-  </si>
-  <si>
-    <t>87年Q2月20日</t>
-  </si>
-  <si>
-    <t>87年02月</t>
-  </si>
-  <si>
-    <t>98年07月30日</t>
-  </si>
-  <si>
-    <t>98年06月260.</t>
-  </si>
-  <si>
-    <t>99年02月25日</t>
-  </si>
-  <si>
-    <t>100年08月01日</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>534700(超過五年）</t>
   </si>
   <si>
@@ -544,6 +547,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣水泥股份有限公司</t>
   </si>
   <si>
     <t>台塑石化股份有限公司</t>
@@ -1118,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1176,228 +1182,228 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>491</v>
+        <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2">
         <v>1713</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0984251968503937</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>48.3267716535433</v>
+        <v>101.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>28744</v>
+        <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0984251968503937</v>
       </c>
       <c r="Q4" s="2">
-        <v>2829.13385826772</v>
+        <v>48.3267716535433</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1448</v>
+        <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0984251968503937</v>
       </c>
       <c r="Q5" s="2">
-        <v>1448</v>
+        <v>2829.13385826772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1966</v>
+        <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1409,51 +1415,51 @@
         <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0166</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>32.6356</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2227.81</v>
+        <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>57</v>
@@ -1461,264 +1467,264 @@
       <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2">
-        <v>46784010</v>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2">
         <v>1713</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0.0166</v>
       </c>
       <c r="Q7" s="2">
-        <v>2227.81</v>
+        <v>32.6356</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
-        <v>2836470</v>
+        <v>46784010</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2">
         <v>1713</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2">
-        <v>1859130</v>
+        <v>2836470</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="2">
         <v>1713</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2">
-        <v>22547910</v>
+        <v>1859130</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>389.98</v>
+        <v>1073.71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>81</v>
+      <c r="H11" s="2">
+        <v>22547910</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.265625</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>103.5884375</v>
+        <v>1073.71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>3144</v>
+        <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>60</v>
@@ -1727,101 +1733,101 @@
         <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.5</v>
+        <v>0.265625</v>
       </c>
       <c r="Q12" s="2">
-        <v>1572</v>
+        <v>103.5884375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>267.71</v>
+        <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" s="2">
-        <v>267.71</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>103</v>
+        <v>267.71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>51</v>
@@ -1830,54 +1836,54 @@
         <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0805734058329214</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>8.2990608007909</v>
+        <v>267.71</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>127.95</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>63</v>
@@ -1885,670 +1891,723 @@
       <c r="G15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="2">
-        <v>870128</v>
+      <c r="H15" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="2">
         <v>1713</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O15" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>0.0805734058329214</v>
       </c>
       <c r="Q15" s="2">
-        <v>42.65</v>
+        <v>8.2990608007909</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>108.39</v>
+        <v>127.95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2">
-        <v>737120</v>
+        <v>870128</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="2">
         <v>1713</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>36.13</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>111.39</v>
+        <v>108.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2">
-        <v>757656</v>
+        <v>737120</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="2">
         <v>1713</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>37.13</v>
+        <v>36.13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>208.83</v>
+        <v>111.39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="2">
-        <v>2066362</v>
+        <v>757656</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q18" s="2">
-        <v>69.61</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>3014.97</v>
+        <v>208.83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2">
-        <v>1206000</v>
+        <v>2066362</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>1004.99</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>10.07</v>
+        <v>3014.97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2">
-        <v>154897</v>
+        <v>1206000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q20" s="2">
-        <v>10.07</v>
+        <v>1004.99</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2">
-        <v>625894</v>
+        <v>154897</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2">
-        <v>287490</v>
+        <v>625894</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2">
-        <v>990755</v>
+        <v>287490</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" s="2">
-        <v>88908</v>
+        <v>990755</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="2">
-        <v>608820</v>
+        <v>88908</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H26" s="2">
-        <v>564058</v>
+        <v>608820</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>29.68</v>
+        <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2">
-        <v>456538</v>
+        <v>564058</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2">
+        <v>456538</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
         <v>29.68</v>
       </c>
     </row>
@@ -2559,131 +2618,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2">
         <v>215.58</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2">
-        <v>229.74</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>215.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
-        <v>146.2</v>
+        <v>229.74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>47</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>229.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
-        <v>41.62</v>
+        <v>146.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>146.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41.62</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>122</v>
@@ -2691,25 +2858,52 @@
       <c r="H5" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="2">
+        <v>49</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10.405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
-        <v>60.89</v>
+        <v>14587</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>122</v>
@@ -2717,25 +2911,52 @@
       <c r="H6" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>14587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>122</v>
@@ -2743,25 +2964,52 @@
       <c r="H7" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="2">
+        <v>51</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>122</v>
@@ -2769,25 +3017,52 @@
       <c r="H8" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="2">
+        <v>52</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>122</v>
@@ -2795,25 +3070,52 @@
       <c r="H9" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="2">
+        <v>55</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>122</v>
@@ -2821,25 +3123,52 @@
       <c r="H10" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="2">
+        <v>56</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>122</v>
@@ -2847,265 +3176,615 @@
       <c r="H11" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2">
+        <v>57</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
-        <v>474.2</v>
+        <v>76.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>58</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2">
-        <v>307.8</v>
+        <v>474.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="2">
+        <v>59</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>158.066666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
-        <v>478.1</v>
+        <v>307.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="2">
+        <v>60</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2">
+        <v>478.1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="2">
+        <v>61</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>159.366666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>399.9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="2">
-        <v>192133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2">
-        <v>256.14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H16" s="2">
+        <v>192133</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="2">
+        <v>62</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2">
+        <v>256.14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2">
         <v>140565</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2">
+        <v>63</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>181.3</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2">
         <v>99900</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="2">
+        <v>64</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>181.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>154</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="2">
         <v>187600</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
+        <v>65</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>105.6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="2">
+        <v>131200</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="2">
+        <v>66</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>67</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="2">
-        <v>131200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="2">
-        <v>110.8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="2">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C21" s="2">
+        <v>110.8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2">
+        <v>132000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2">
+        <v>67</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2">
         <v>89.7</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2">
         <v>106800</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2">
+        <v>68</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>89.7</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3794,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3123,16 +3802,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -3141,91 +3820,91 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>494571</v>
+        <v>404201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>3863172</v>
+        <v>494571</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>168</v>
+      <c r="G4" s="2">
+        <v>3863172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1027634</v>
+      <c r="G5" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>142</v>
@@ -3234,61 +3913,61 @@
         <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>19033341</v>
+        <v>1027634</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>208212</v>
+        <v>19033341</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>651014</v>
+        <v>208212</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>145</v>
@@ -3297,52 +3976,52 @@
         <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>257</v>
+        <v>651014</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>169</v>
+      <c r="G10" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -3351,364 +4030,385 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1362644</v>
+      <c r="G12" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>94</v>
+        <v>1362644</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16.8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>511.39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>576.89</v>
+        <v>16.8</v>
       </c>
       <c r="G15" s="2">
-        <v>17560.53</v>
+        <v>511.39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>576.89</v>
+      </c>
       <c r="G16" s="2">
-        <v>162685</v>
+        <v>17560.53</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>9548129</v>
+        <v>162685</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>11094760</v>
+        <v>9548129</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>3004674</v>
+        <v>11094760</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>653052</v>
+        <v>3004674</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>16381</v>
+        <v>653052</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>230112</v>
+        <v>16381</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>14228</v>
+        <v>230112</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>16423</v>
+        <v>14228</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>171</v>
+      <c r="G25" s="2">
+        <v>16423</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>233</v>
+      <c r="G26" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>23239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>23239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>116</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="B29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2">
         <v>1401.58</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>42664.1</v>
       </c>
     </row>
@@ -3719,7 +4419,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3733,13 +4433,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3768,397 +4468,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>620</v>
+        <v>78364</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2">
-        <v>6200</v>
+        <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>803</v>
+        <v>620</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2">
-        <v>8030</v>
+        <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>803</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>184</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2">
-        <v>28390</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3874</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2">
-        <v>38740</v>
+        <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N6" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>185</v>
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3874</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
+      </c>
+      <c r="G7" s="2">
+        <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2">
-        <v>217264</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2172640</v>
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>3359</v>
+        <v>217264</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>187</v>
+        <v>140</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
-        <v>25992</v>
+        <v>3359</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="2">
+        <v>140</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="2">
         <v>259920</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1713</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="H11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
         <v>132</v>
       </c>
     </row>
@@ -4169,7 +4913,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4177,10 +4921,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -4191,7 +4935,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1">
         <v>10</v>
@@ -4199,130 +4943,153 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="I6" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4333,7 +5100,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4341,252 +5108,275 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="2">
-        <v>30460</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30460</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1222200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2">
-        <v>800000</v>
+        <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E5" s="2">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E6" s="2">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2">
-        <v>120000</v>
+        <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2">
-        <v>134580</v>
+        <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E9" s="2">
-        <v>1000000</v>
+        <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E10" s="2">
-        <v>726600</v>
+        <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>208</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="2">
+        <v>726600</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>209</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="2">
         <v>200000</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>218</v>
+      <c r="F12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>172064(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>安寧商業銀行員林分行</t>
@@ -2700,7 +2703,7 @@
         <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>88</v>
@@ -2753,7 +2756,7 @@
         <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>88</v>
@@ -2806,7 +2809,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>88</v>
@@ -2859,7 +2862,7 @@
         <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>88</v>
@@ -2912,7 +2915,7 @@
         <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -2965,7 +2968,7 @@
         <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>88</v>
@@ -3018,7 +3021,7 @@
         <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>88</v>
@@ -3071,7 +3074,7 @@
         <v>131</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>88</v>
@@ -3124,7 +3127,7 @@
         <v>132</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>88</v>
@@ -3177,7 +3180,7 @@
         <v>133</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>88</v>
@@ -3230,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>88</v>
@@ -3283,7 +3286,7 @@
         <v>135</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>88</v>
@@ -3336,7 +3339,7 @@
         <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>88</v>
@@ -3389,7 +3392,7 @@
         <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>88</v>
@@ -3442,7 +3445,7 @@
         <v>192133</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>88</v>
@@ -3495,7 +3498,7 @@
         <v>140565</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>88</v>
@@ -3548,7 +3551,7 @@
         <v>99900</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>88</v>
@@ -3601,7 +3604,7 @@
         <v>187600</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>88</v>
@@ -3654,7 +3657,7 @@
         <v>131200</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>88</v>
@@ -3707,7 +3710,7 @@
         <v>132000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>88</v>
@@ -3760,7 +3763,7 @@
         <v>106800</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>88</v>
@@ -3802,13 +3805,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3823,13 +3826,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
@@ -3844,13 +3847,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
@@ -3865,13 +3868,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>50</v>
@@ -3886,20 +3889,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3907,13 +3910,13 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -3928,13 +3931,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
@@ -3949,13 +3952,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
@@ -3970,13 +3973,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
@@ -3991,13 +3994,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
@@ -4012,20 +4015,20 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4033,20 +4036,20 @@
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4054,13 +4057,13 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>50</v>
@@ -4075,13 +4078,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
@@ -4096,13 +4099,13 @@
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
@@ -4119,13 +4122,13 @@
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
@@ -4142,13 +4145,13 @@
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -4163,13 +4166,13 @@
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -4184,13 +4187,13 @@
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -4205,13 +4208,13 @@
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -4226,13 +4229,13 @@
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -4247,13 +4250,13 @@
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -4268,13 +4271,13 @@
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -4289,13 +4292,13 @@
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -4310,13 +4313,13 @@
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
@@ -4331,20 +4334,20 @@
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4352,13 +4355,13 @@
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>51</v>
@@ -4373,13 +4376,13 @@
         <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -4394,13 +4397,13 @@
         <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>51</v>
@@ -4433,13 +4436,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -4471,7 +4474,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -4483,13 +4486,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -4515,7 +4518,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -4527,13 +4530,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -4559,7 +4562,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -4571,13 +4574,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -4603,7 +4606,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -4615,13 +4618,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>88</v>
@@ -4647,25 +4650,25 @@
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>88</v>
@@ -4691,7 +4694,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -4703,13 +4706,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -4735,25 +4738,25 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>88</v>
@@ -4779,7 +4782,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>50</v>
@@ -4791,13 +4794,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>88</v>
@@ -4823,7 +4826,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -4835,13 +4838,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>88</v>
@@ -4867,7 +4870,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -4879,13 +4882,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>88</v>
@@ -4921,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
@@ -4935,7 +4938,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1">
         <v>10</v>
@@ -4946,7 +4949,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -4969,28 +4972,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4998,26 +5001,26 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5025,26 +5028,26 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5052,22 +5055,22 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5075,17 +5078,17 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5111,19 +5114,19 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5134,19 +5137,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5157,19 +5160,19 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5180,19 +5183,19 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5203,19 +5206,19 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5226,19 +5229,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5249,19 +5252,19 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5272,19 +5275,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5295,19 +5298,19 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5318,19 +5321,19 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5341,19 +5344,19 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5364,19 +5367,19 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -438,90 +438,99 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>安寧商業銀行員林分行</t>
   </si>
   <si>
+    <t>聯邦商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行西螺分行</t>
+  </si>
+  <si>
+    <t>溪州郵局（第37支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行員#分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業娘行西螺分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行花壇分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北斗分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>其惮存款</t>
+  </si>
+  <si>
+    <t>活期存款‘</t>
+  </si>
+  <si>
+    <t>活期篩蓄存款</t>
+  </si>
+  <si>
+    <t>洼期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款..</t>
+  </si>
+  <si>
+    <t>活期儲蓄織</t>
+  </si>
+  <si>
+    <t>活期儲霣存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>聯邦商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行西螺分行</t>
-  </si>
-  <si>
-    <t>溪州郵局（第37支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行員#分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業娘行西螺分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行花壇分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>其惮存款</t>
-  </si>
-  <si>
-    <t>活期存款‘</t>
-  </si>
-  <si>
-    <t>活期篩蓄存款</t>
-  </si>
-  <si>
-    <t>洼期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款..</t>
-  </si>
-  <si>
-    <t>活期儲蓄織</t>
-  </si>
-  <si>
-    <t>活期儲霣存款</t>
-  </si>
-  <si>
     <t>新臺锖</t>
   </si>
   <si>
@@ -531,25 +540,13 @@
     <t>美金</t>
   </si>
   <si>
-    <t>4487655</t>
-  </si>
-  <si>
-    <t>7242261</t>
-  </si>
-  <si>
-    <t>34529973</t>
-  </si>
-  <si>
-    <t>1883340</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣水泥股份有限公司</t>
@@ -3797,13 +3794,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
@@ -3814,605 +3811,1179 @@
         <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
         <v>404201</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>404201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>494571</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>3863172</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>4487655</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1027634</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>19033341</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>208212</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>651014</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>7242261</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>34529973</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1362644</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="G15" s="2">
         <v>511.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>576.89</v>
-      </c>
-      <c r="G16" s="2">
         <v>17560.53</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>162685</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>9548129</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>11094760</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>3004674</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>653052</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>16381</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>230112</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>14228</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>16423</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>1883340</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>114</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>23239</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="2">
-        <v>1401.58</v>
-      </c>
-      <c r="G29" s="2">
         <v>42664.1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +5013,7 @@
         <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -4474,7 +5045,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -4486,13 +5057,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -4518,7 +5089,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -4530,13 +5101,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -4562,7 +5133,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -4574,13 +5145,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -4606,7 +5177,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -4618,13 +5189,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>88</v>
@@ -4650,25 +5221,25 @@
         <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>88</v>
@@ -4694,7 +5265,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -4706,13 +5277,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -4738,25 +5309,25 @@
         <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>88</v>
@@ -4782,7 +5353,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>50</v>
@@ -4794,13 +5365,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>88</v>
@@ -4826,7 +5397,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -4838,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>88</v>
@@ -4870,7 +5441,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -4882,13 +5453,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>88</v>
@@ -4924,7 +5495,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
@@ -4938,7 +5509,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="I1" s="1">
         <v>10</v>
@@ -4949,7 +5520,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -4972,28 +5543,28 @@
         <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5001,26 +5572,26 @@
         <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5028,26 +5599,26 @@
         <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5055,22 +5626,22 @@
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5078,17 +5649,17 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5114,19 +5685,19 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5137,19 +5708,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5160,19 +5731,19 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5183,19 +5754,19 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5206,19 +5777,19 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5229,19 +5800,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5252,19 +5823,19 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5275,19 +5846,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5298,19 +5869,19 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5321,19 +5892,19 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5344,19 +5915,19 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5367,19 +5938,19 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -12,14 +12,17 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債權" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="234">
   <si>
     <t>name</t>
   </si>
@@ -597,79 +600,34 @@
     <t>山隆通運股份有限公司</t>
   </si>
   <si>
-    <t>財</t>
-  </si>
-  <si>
-    <t>縣丫货</t>
+    <t>otherbonds</t>
+  </si>
+  <si>
+    <t>珠寶</t>
   </si>
   <si>
     <t>SW(罕發）勃迪</t>
   </si>
   <si>
-    <t>n褂</t>
+    <t>LBJ钿(帀召）**</t>
+  </si>
+  <si>
+    <t>盤m</t>
+  </si>
+  <si>
+    <t>7¥取茗Y揆褂</t>
+  </si>
+  <si>
+    <t>Y鄯勘</t>
+  </si>
+  <si>
+    <t>m#</t>
   </si>
   <si>
     <t>OOOOSVZ</t>
   </si>
   <si>
-    <t>產</t>
-  </si>
-  <si>
-    <t>日U巨so由时</t>
-  </si>
-  <si>
-    <t>LBJ钿(帀召）**</t>
-  </si>
-  <si>
-    <t>Y势蕾</t>
-  </si>
-  <si>
     <t>mm</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>000*0004Si</t>
-  </si>
-  <si>
-    <t>盤m</t>
-  </si>
-  <si>
-    <t>操方辱|势</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>m#</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>mzmoz叵矽刨萆扮视辑始劁ai■颖</t>
-  </si>
-  <si>
-    <t>7¥取茗Y揆褂</t>
-  </si>
-  <si>
-    <t>垣夺辱1势</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>耷獅</t>
-  </si>
-  <si>
-    <t>Y鄯勘</t>
-  </si>
-  <si>
-    <t>價.</t>
   </si>
   <si>
     <t>任豐企業股份有限公司</t>
@@ -5487,35 +5445,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>146</v>
       </c>
@@ -5525,146 +5502,38 @@
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
         <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>149</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>156</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>182</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>1</v>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5673,6 +5542,192 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -5685,19 +5740,19 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5708,19 +5763,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5731,19 +5786,19 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5754,19 +5809,19 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5777,19 +5832,19 @@
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5800,19 +5855,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5823,19 +5878,19 @@
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5846,19 +5901,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5869,19 +5924,19 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5892,19 +5947,19 @@
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5915,19 +5970,19 @@
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5938,19 +5993,19 @@
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2011-11-21_財產申報表_tmpcd8e1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="267">
   <si>
     <t>name</t>
   </si>
@@ -606,124 +606,223 @@
     <t>珠寶</t>
   </si>
   <si>
-    <t>SW(罕發）勃迪</t>
-  </si>
-  <si>
-    <t>LBJ钿(帀召）**</t>
-  </si>
-  <si>
-    <t>盤m</t>
-  </si>
-  <si>
-    <t>7¥取茗Y揆褂</t>
-  </si>
-  <si>
-    <t>Y鄯勘</t>
-  </si>
-  <si>
-    <t>m#</t>
-  </si>
-  <si>
-    <t>OOOOSVZ</t>
-  </si>
-  <si>
-    <t>mm</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>真意終身還本保險</t>
+  </si>
+  <si>
+    <t>百年長青終身壽險</t>
+  </si>
+  <si>
+    <t>防癌健康終身保險</t>
+  </si>
+  <si>
+    <t>長福終身壽險</t>
+  </si>
+  <si>
+    <t>金友利保險</t>
+  </si>
+  <si>
+    <t>金福利保險</t>
+  </si>
+  <si>
+    <t>真心終身還本保險</t>
+  </si>
+  <si>
+    <t>郵政簡易人壽步步高升保險</t>
+  </si>
+  <si>
+    <t>新定期壽險</t>
+  </si>
+  <si>
+    <t>新終身壽險</t>
+  </si>
+  <si>
+    <t>富貴保本三福終身</t>
+  </si>
+  <si>
+    <t>美滿人生312終身</t>
+  </si>
+  <si>
+    <t>20年繳費終身壽險(福型)</t>
+  </si>
+  <si>
+    <t>20年繳費盈福養老保險</t>
+  </si>
+  <si>
+    <t>終身還本二年型</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
+  </si>
+  <si>
+    <t>隆霖多媒體科技股份有限公司彰化縣溪州鄉慶平路28號2樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>隆立營造股份有限公司彰化縣溪州鄉進元路10號</t>
+  </si>
+  <si>
+    <t>94年05月23日</t>
+  </si>
+  <si>
+    <t>100年03月10日</t>
+  </si>
+  <si>
+    <t>98年10月26日</t>
+  </si>
+  <si>
+    <t>99年11月10日</t>
+  </si>
+  <si>
+    <t>97年09月23日</t>
+  </si>
+  <si>
+    <t>私人借貸</t>
+  </si>
+  <si>
+    <t>股東往來</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>聯拳電信股份有限公司</t>
+  </si>
+  <si>
+    <t>威寶電信股份有限公司</t>
+  </si>
+  <si>
+    <t>埤頭液化煤氣行</t>
+  </si>
+  <si>
+    <t>豐宜實業股份有限公司</t>
+  </si>
+  <si>
+    <t>六八煤氣行</t>
+  </si>
+  <si>
+    <t>聯華電信股份有限公司</t>
+  </si>
+  <si>
+    <t>亞太電信股份有限公司</t>
+  </si>
+  <si>
+    <t>威寶電信股份肴限公司</t>
+  </si>
+  <si>
+    <t>全家福通訊科孩股份有限公司</t>
+  </si>
+  <si>
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
+    <t>臺北市八德路2段232號4樓</t>
+  </si>
+  <si>
+    <t>臺北市瑞光路358巷36號5樓</t>
+  </si>
+  <si>
+    <t>彰化縣西德里舜耕路*47號</t>
+  </si>
+  <si>
+    <t>彰化縣復興路12號</t>
+  </si>
+  <si>
+    <t>高雄市崙北巷11號</t>
+  </si>
+  <si>
+    <t>彰化縣慶平路83號</t>
+  </si>
+  <si>
+    <t>臺北市經貿二路66號12樓</t>
+  </si>
+  <si>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
     <t>78年04月20日</t>
   </si>
   <si>
+    <t>94年01月13日</t>
+  </si>
+  <si>
+    <t>94年02月02日</t>
+  </si>
+  <si>
+    <t>72年04月18曰</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>97年12月31曰</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
+  </si>
+  <si>
     <t>合資</t>
   </si>
   <si>
-    <t>聯拳電信股份有限公司</t>
-  </si>
-  <si>
-    <t>威寶電信股份有限公司</t>
-  </si>
-  <si>
-    <t>埤頭液化煤氣行</t>
-  </si>
-  <si>
-    <t>豐宜實業股份有限公司</t>
-  </si>
-  <si>
-    <t>六八煤氣行</t>
-  </si>
-  <si>
-    <t>聯華電信股份有限公司</t>
-  </si>
-  <si>
-    <t>亞太電信股份有限公司</t>
-  </si>
-  <si>
-    <t>威寶電信股份肴限公司</t>
-  </si>
-  <si>
-    <t>全家福通訊科孩股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市八德路2段232號4樓</t>
-  </si>
-  <si>
-    <t>臺北市瑞光路358巷36號5樓</t>
-  </si>
-  <si>
-    <t>彰化縣西德里舜耕路*47號</t>
-  </si>
-  <si>
-    <t>彰化縣復興路12號</t>
-  </si>
-  <si>
-    <t>高雄市崙北巷11號</t>
-  </si>
-  <si>
-    <t>彰化縣慶平路83號</t>
-  </si>
-  <si>
-    <t>臺北市經貿二路66號12樓</t>
-  </si>
-  <si>
-    <t>彰化縣中山路3段270巷11號1樓</t>
-  </si>
-  <si>
-    <t>94年01月13日</t>
-  </si>
-  <si>
-    <t>94年02月02日</t>
-  </si>
-  <si>
-    <t>72年04月18曰</t>
-  </si>
-  <si>
-    <t>86年02月19日</t>
-  </si>
-  <si>
-    <t>91年10月23日</t>
-  </si>
-  <si>
-    <t>74年04月20日</t>
-  </si>
-  <si>
-    <t>94年01月13曰</t>
-  </si>
-  <si>
-    <t>97年12月31曰</t>
-  </si>
-  <si>
-    <t>98年05月19日</t>
-  </si>
-  <si>
     <t>合夥</t>
   </si>
   <si>
     <t>合</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -5601,7 +5700,7 @@
         <v>2150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>88</v>
@@ -5629,53 +5728,812 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>157</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>159</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>160</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>161</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>162</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>163</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>166</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>168</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>169</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>170</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>171</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>173</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>199</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>175</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>176</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="2">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5685,41 +6543,271 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="2">
+        <v>75000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="2">
+        <v>209000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>184</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>185</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="2">
+        <v>772000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="2">
+        <v>195000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5729,283 +6817,535 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1600000</v>
+        <v>233</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>205</v>
+        <v>263</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
